--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>username</t>
   </si>
@@ -45,6 +45,21 @@
     <t>Queues</t>
   </si>
   <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Graphs</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
     <t>Nirvana</t>
   </si>
   <si>
@@ -55,9 +70,6 @@
   </si>
   <si>
     <t>prin("Hello Selenium")</t>
-  </si>
-  <si>
-    <t>gfd</t>
   </si>
   <si>
     <t>Implementation of Queue in Python</t>
@@ -136,19 +148,13 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color rgb="FF17C6A3"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -613,139 +619,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1066,23 +1071,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="35.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="25.8571428571429" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
-    <col min="6" max="6" width="38.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="38.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="19.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="22.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,80 +1102,91 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1"/>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" ht="27.75" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1182,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1196,38 +1214,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>username</t>
   </si>
@@ -54,7 +54,7 @@
     <t>LinkedList</t>
   </si>
   <si>
-    <t>Trees</t>
+    <t>Tree</t>
   </si>
   <si>
     <t>Stack</t>
@@ -75,7 +75,19 @@
     <t>Implementation of Queue in Python</t>
   </si>
   <si>
-    <t>Narvana</t>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Overview of Trees</t>
+  </si>
+  <si>
+    <t>Operations in Stack</t>
   </si>
   <si>
     <t>print"DsAlgo Team"</t>
@@ -87,7 +99,19 @@
     <t>Implementation using collections.deque</t>
   </si>
   <si>
-    <t>oopsinvalid</t>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Graph Representations</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>Terminologies</t>
+  </si>
+  <si>
+    <t>Implementation</t>
   </si>
   <si>
     <t>print("Valid data verified")</t>
@@ -99,10 +123,16 @@
     <t>Implementation using array</t>
   </si>
   <si>
-    <t>hsjkcbjkcb</t>
-  </si>
-  <si>
-    <t>hggdyw78</t>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Types of Trees</t>
+  </si>
+  <si>
+    <t>Applications</t>
   </si>
   <si>
     <t>print("Valid data")</t>
@@ -112,6 +142,45 @@
   </si>
   <si>
     <t>Queue Operations</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Tree Traversals</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Traversals-Illustration</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Types of Binary Trees</t>
+  </si>
+  <si>
+    <t>Implementation in Python</t>
+  </si>
+  <si>
+    <t>Applications of Binary trees</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Implementation Of BST</t>
   </si>
   <si>
     <t>Username</t>
@@ -749,9 +818,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1071,22 +1141,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="35.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="25.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="4" max="4" width="21.8571428571429" customWidth="1"/>
     <col min="5" max="5" width="38.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="19.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="22.1428571428571" customWidth="1"/>
-    <col min="8" max="8" width="11.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="26.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1121,7 +1193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1137,56 +1209,151 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="8:9">
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="8:9">
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="8:9">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="9:9">
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="9:9">
+      <c r="I12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1214,16 +1381,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1234,18 +1401,18 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12660" windowHeight="9900"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,8 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>username</t>
   </si>
@@ -47,6 +49,21 @@
     <t>Invalidcode</t>
   </si>
   <si>
+    <t>Queues</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Graphpane</t>
+  </si>
+  <si>
     <t>Nirvana</t>
   </si>
   <si>
@@ -59,24 +76,108 @@
     <t>prin("Hello Selenium")</t>
   </si>
   <si>
+    <t>Implementation of Queue in Python</t>
+  </si>
+  <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Overview of Trees</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
     <t>print"DsAlgo Team"</t>
   </si>
   <si>
     <t>pri(bvfjfh</t>
   </si>
   <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>Terminologies</t>
+  </si>
+  <si>
+    <t>Graph Representations</t>
+  </si>
+  <si>
     <t>print("Valid data verified")</t>
   </si>
   <si>
     <t>ncvkja,jk</t>
   </si>
   <si>
+    <t>Implementation using array</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Types of Trees</t>
+  </si>
+  <si>
     <t>print("Valid data")</t>
   </si>
   <si>
     <t>hghhlh</t>
   </si>
   <si>
+    <t>Queue Operations</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Tree Traversals</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Traversals-Illustration</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Binary Trees</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
+    <t>Types of Binary Trees</t>
+  </si>
+  <si>
+    <t>Implementation in Python</t>
+  </si>
+  <si>
+    <t>Applications of Binary trees</t>
+  </si>
+  <si>
+    <t>Binary Search Trees</t>
+  </si>
+  <si>
+    <t>Implementation Of BST</t>
+  </si>
+  <si>
     <t>Username</t>
   </si>
   <si>
@@ -99,96 +200,6 @@
   </si>
   <si>
     <t>Invalid</t>
-  </si>
-  <si>
-    <t>Queues</t>
-  </si>
-  <si>
-    <t>Implementation of Queue in Python</t>
-  </si>
-  <si>
-    <t>Implementation using collections.deque</t>
-  </si>
-  <si>
-    <t>Implementation using array</t>
-  </si>
-  <si>
-    <t>Queue Operations</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>Arrays in Python</t>
-  </si>
-  <si>
-    <t>Arrays Using List</t>
-  </si>
-  <si>
-    <t>Basic Operations in Lists</t>
-  </si>
-  <si>
-    <t>Applications of Array</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Creating Linked LIst</t>
-  </si>
-  <si>
-    <t>Types of Linked List</t>
-  </si>
-  <si>
-    <t>Implement Linked List in Python</t>
-  </si>
-  <si>
-    <t>Traversal</t>
-  </si>
-  <si>
-    <t>Insertion</t>
-  </si>
-  <si>
-    <t>Deletion</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Overview of Trees</t>
-  </si>
-  <si>
-    <t>Terminologies</t>
-  </si>
-  <si>
-    <t>Types of Trees</t>
-  </si>
-  <si>
-    <t>Tree Traversals</t>
-  </si>
-  <si>
-    <t>Traversals-Illustration</t>
-  </si>
-  <si>
-    <t>Binary Trees</t>
-  </si>
-  <si>
-    <t>Types of Binary Trees</t>
-  </si>
-  <si>
-    <t>Implementation in Python</t>
-  </si>
-  <si>
-    <t>Applications of Binary trees</t>
-  </si>
-  <si>
-    <t>Binary Search Trees</t>
-  </si>
-  <si>
-    <t>Implementation Of BST</t>
   </si>
   <si>
     <t>Stack</t>
@@ -1137,13 +1148,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="I1" sqref="I$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1151,13 +1162,13 @@
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="38.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="26.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="25.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1170,66 +1181,174 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="7:8">
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="7:8">
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="7:8">
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1257,38 +1376,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1303,7 +1422,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1313,27 +1432,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1467,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1358,27 +1477,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1512,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1403,27 +1522,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1433,12 +1552,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1463,62 +1582,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1543,22 +1662,73 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <cols>
+    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/Testdata.xlsx
+++ b/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12180"/>
+    <workbookView windowWidth="12660" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,8 +14,6 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>username</t>
   </si>
@@ -49,120 +47,135 @@
     <t>Invalidcode</t>
   </si>
   <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>archanachaya</t>
+  </si>
+  <si>
+    <t>print("HelloSelenium")</t>
+  </si>
+  <si>
+    <t>prin("Hello Selenium")</t>
+  </si>
+  <si>
+    <t>print"DsAlgo Team"</t>
+  </si>
+  <si>
+    <t>pri(bvfjfh</t>
+  </si>
+  <si>
+    <t>print("Valid data verified")</t>
+  </si>
+  <si>
+    <t>ncvkja,jk</t>
+  </si>
+  <si>
+    <t>print("Valid data")</t>
+  </si>
+  <si>
+    <t>hghhlh</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>ValidInvalid</t>
+  </si>
+  <si>
+    <t>print("helloSelenium")</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>prin('hello</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
     <t>Queues</t>
   </si>
   <si>
+    <t>Implementation of Queue in Python</t>
+  </si>
+  <si>
+    <t>Implementation using collections.deque</t>
+  </si>
+  <si>
+    <t>Implementation using array</t>
+  </si>
+  <si>
+    <t>Queue Operations</t>
+  </si>
+  <si>
     <t>Array</t>
   </si>
   <si>
+    <t>Arrays in Python</t>
+  </si>
+  <si>
+    <t>Arrays Using List</t>
+  </si>
+  <si>
+    <t>Basic Operations in Lists</t>
+  </si>
+  <si>
+    <t>Applications of Array</t>
+  </si>
+  <si>
     <t>LinkedList</t>
   </si>
   <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Creating Linked LIst</t>
+  </si>
+  <si>
+    <t>Types of Linked List</t>
+  </si>
+  <si>
+    <t>Implement Linked List in Python</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Insertion</t>
+  </si>
+  <si>
+    <t>Deletion</t>
+  </si>
+  <si>
     <t>Tree</t>
   </si>
   <si>
-    <t>Graphpane</t>
-  </si>
-  <si>
-    <t>Nirvana</t>
-  </si>
-  <si>
-    <t>archanachaya</t>
-  </si>
-  <si>
-    <t>print("HelloSelenium")</t>
-  </si>
-  <si>
-    <t>prin("Hello Selenium")</t>
-  </si>
-  <si>
-    <t>Implementation of Queue in Python</t>
-  </si>
-  <si>
-    <t>Arrays in Python</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
     <t>Overview of Trees</t>
   </si>
   <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>print"DsAlgo Team"</t>
-  </si>
-  <si>
-    <t>pri(bvfjfh</t>
-  </si>
-  <si>
-    <t>Implementation using collections.deque</t>
-  </si>
-  <si>
-    <t>Arrays Using List</t>
-  </si>
-  <si>
-    <t>Creating Linked LIst</t>
-  </si>
-  <si>
     <t>Terminologies</t>
   </si>
   <si>
-    <t>Graph Representations</t>
-  </si>
-  <si>
-    <t>print("Valid data verified")</t>
-  </si>
-  <si>
-    <t>ncvkja,jk</t>
-  </si>
-  <si>
-    <t>Implementation using array</t>
-  </si>
-  <si>
-    <t>Basic Operations in Lists</t>
-  </si>
-  <si>
-    <t>Types of Linked List</t>
-  </si>
-  <si>
     <t>Types of Trees</t>
   </si>
   <si>
-    <t>print("Valid data")</t>
-  </si>
-  <si>
-    <t>hghhlh</t>
-  </si>
-  <si>
-    <t>Queue Operations</t>
-  </si>
-  <si>
-    <t>Applications of Array</t>
-  </si>
-  <si>
-    <t>Implement Linked List in Python</t>
-  </si>
-  <si>
     <t>Tree Traversals</t>
   </si>
   <si>
-    <t>Traversal</t>
-  </si>
-  <si>
     <t>Traversals-Illustration</t>
   </si>
   <si>
-    <t>Insertion</t>
-  </si>
-  <si>
     <t>Binary Trees</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>Types of Binary Trees</t>
   </si>
   <si>
@@ -176,30 +189,6 @@
   </si>
   <si>
     <t>Implementation Of BST</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>ValidInvalid</t>
-  </si>
-  <si>
-    <t>print("helloSelenium")</t>
-  </si>
-  <si>
-    <t>Valid</t>
-  </si>
-  <si>
-    <t>prin('hello</t>
-  </si>
-  <si>
-    <t>Invalid</t>
   </si>
   <si>
     <t>Stack</t>
@@ -1148,13 +1137,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="10.7142857142857" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1162,13 +1151,13 @@
     <col min="4" max="4" width="21.4285714285714" customWidth="1"/>
     <col min="5" max="5" width="38.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="22.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="26.5714285714286" customWidth="1"/>
-    <col min="9" max="9" width="25.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="20.8571428571429" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="26.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1181,174 +1170,66 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="7:8">
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="7:8">
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="7:8">
-      <c r="G8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="8:8">
-      <c r="H9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="8:8">
-      <c r="H10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="8:8">
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="8:8">
-      <c r="H12" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1376,38 +1257,38 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:4">
       <c r="C3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1303,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1432,27 +1313,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1348,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
@@ -1477,27 +1358,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1512,7 +1393,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1522,27 +1403,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -1552,12 +1433,12 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1582,62 +1463,62 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1662,73 +1543,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
-  <cols>
-    <col min="1" max="1" width="25.5714285714286" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
